--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,36 +49,39 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
@@ -106,118 +112,106 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>amp</t>
+    <t>shop</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -694,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.821917808219178</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>0.875</v>
@@ -844,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,16 +859,16 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,37 +888,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6271186440677966</v>
+        <v>0.625</v>
       </c>
       <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8">
-        <v>37</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8407310704960835</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5949612403100775</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C9">
-        <v>307</v>
+        <v>113</v>
       </c>
       <c r="D9">
-        <v>307</v>
+        <v>113</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8359375</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5767195767195767</v>
+        <v>0.5717054263565892</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.83125</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5033557046979866</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>0.8181818181818182</v>
@@ -1094,37 +1088,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4727272727272727</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>29</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4727272727272727</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.8169014084507042</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L13">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4533333333333333</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.813953488372093</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1244,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.80625</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3246753246753247</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.8055555555555556</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3214285714285715</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C17">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.796875</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,37 +1388,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.228494623655914</v>
+        <v>0.3134920634920635</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D18">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7924528301886793</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L18">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1266666666666667</v>
+        <v>0.2332439678284182</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,31 +1456,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7903225806451613</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,37 +1488,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.03979238754325259</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1110</v>
+        <v>262</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,37 +1538,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03763789746917586</v>
+        <v>0.09246575342465753</v>
       </c>
       <c r="C21">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="F21">
-        <v>0.8200000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2966</v>
+        <v>265</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1586,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,37 +1588,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.03207547169811321</v>
+        <v>0.04257167680278019</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="F22">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2052</v>
+        <v>1102</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,37 +1638,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00966183574879227</v>
+        <v>0.03371150729335495</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D23">
         <v>126</v>
       </c>
       <c r="E23">
-        <v>0.76</v>
+        <v>0.17</v>
       </c>
       <c r="F23">
-        <v>0.24</v>
+        <v>0.83</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3075</v>
+        <v>2981</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6615384615384615</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,21 +1680,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.02731983042863872</v>
+      </c>
+      <c r="C24">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>78</v>
+      </c>
+      <c r="E24">
+        <v>0.26</v>
+      </c>
+      <c r="F24">
+        <v>0.74</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2065</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6558823529411765</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L24">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1712,73 +1730,97 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.008036001285760206</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>115</v>
+      </c>
+      <c r="E25">
+        <v>0.78</v>
+      </c>
+      <c r="F25">
+        <v>0.22</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3086</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.6470588235294118</v>
+        <v>0.6292517006802721</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L26">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.6401673640167364</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L27">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M27">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1790,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.6382978723404256</v>
+        <v>0.58</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1816,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.6285714285714286</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1842,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.6067415730337079</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1868,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1894,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.4794520547945205</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1920,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.459016393442623</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1946,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.390625</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1972,215 +2014,85 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="L35">
         <v>30</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>48</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.2580645161290323</v>
+        <v>0.03128491620111732</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>92</v>
+        <v>867</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K37">
-        <v>0.1038961038961039</v>
+        <v>0.02833753148614609</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K38">
-        <v>0.07758620689655173</v>
-      </c>
-      <c r="L38">
-        <v>27</v>
-      </c>
-      <c r="M38">
-        <v>28</v>
-      </c>
-      <c r="N38">
-        <v>0.96</v>
-      </c>
-      <c r="O38">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39">
-        <v>0.0625</v>
-      </c>
-      <c r="L39">
-        <v>26</v>
-      </c>
-      <c r="M39">
-        <v>26</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K40">
-        <v>0.0453125</v>
-      </c>
-      <c r="L40">
-        <v>29</v>
-      </c>
-      <c r="M40">
-        <v>39</v>
-      </c>
-      <c r="N40">
-        <v>0.74</v>
-      </c>
-      <c r="O40">
-        <v>0.26</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41">
-        <v>0.03027436140018921</v>
-      </c>
-      <c r="L41">
-        <v>96</v>
-      </c>
-      <c r="M41">
-        <v>126</v>
-      </c>
-      <c r="N41">
-        <v>0.76</v>
-      </c>
-      <c r="O41">
-        <v>0.24</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K42">
-        <v>0.008358408559010365</v>
-      </c>
-      <c r="L42">
-        <v>25</v>
-      </c>
-      <c r="M42">
-        <v>141</v>
-      </c>
-      <c r="N42">
-        <v>0.18</v>
-      </c>
-      <c r="O42">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>2966</v>
+        <v>3086</v>
       </c>
     </row>
   </sheetData>
